--- a/layout初始数据.xlsx
+++ b/layout初始数据.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DBC\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DBC\home\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="120">
   <si>
     <t>DOC_ID</t>
   </si>
@@ -882,13 +882,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
@@ -952,17 +967,70 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/layout初始数据.xlsx
+++ b/layout初始数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="175">
   <si>
     <t>DOC_ID</t>
   </si>
@@ -464,6 +464,216 @@
   </si>
   <si>
     <t>UPDATE_TIME</t>
+  </si>
+  <si>
+    <t>BIND_DATA</t>
+  </si>
+  <si>
+    <t>AUTH_MENU_BUTTON</t>
+  </si>
+  <si>
+    <t>BIND_ND_CODE</t>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAYOUT_ND_CODE</t>
+  </si>
+  <si>
+    <t>DATA_SOURSE_NAME</t>
+  </si>
+  <si>
+    <t>FUNCTION_LIST</t>
+  </si>
+  <si>
+    <t>INIT_FUNCTION_LIST</t>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>LContainer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout-form</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>LcText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nd.attributes.code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item-nd.attributes.code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nd.attributes.name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item-nd.attributes.name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item-nd.attributes.ndCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nd.attributes.ndCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcButton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout-save</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>layoutSave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -808,18 +1018,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -848,28 +1071,36 @@
         <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>7</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -880,22 +1111,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.125" style="2" bestFit="1" customWidth="1"/>
@@ -959,6 +1191,157 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -967,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1030,6 +1413,84 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1038,17 +1499,109 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/layout初始数据.xlsx
+++ b/layout初始数据.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
     <sheet name="LContainer" sheetId="3" r:id="rId2"/>
     <sheet name="LcText" sheetId="4" r:id="rId3"/>
     <sheet name="LcButton" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="ATTRIBUTES_DEFINITION" sheetId="2" r:id="rId5"/>
+    <sheet name="COMPONENT_TEMPLATE" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="177">
   <si>
     <t>DOC_ID</t>
   </si>
@@ -110,17 +111,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VALUECODE</t>
-  </si>
-  <si>
-    <t>VALUENAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESCRIPT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VERSION</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -162,10 +152,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0001（递增）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>空</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -674,6 +660,24 @@
   <si>
     <t>101</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>CREATOR</t>
+  </si>
+  <si>
+    <t>MODIFIER</t>
+  </si>
+  <si>
+    <t>TEMPLATE_START</t>
+  </si>
+  <si>
+    <t>TEMPLATE_BODY</t>
+  </si>
+  <si>
+    <t>TEMPLATE_END</t>
   </si>
 </sst>
 </file>
@@ -1071,36 +1075,36 @@
         <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1140,31 +1144,31 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>0</v>
@@ -1193,153 +1197,153 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="Q3" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1374,31 +1378,31 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>0</v>
@@ -1415,80 +1419,80 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1512,31 +1516,31 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>0</v>
@@ -1554,51 +1558,51 @@
         <v>6</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1609,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1620,19 +1624,17 @@
     <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="6.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.75" style="2"/>
+    <col min="6" max="7" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1663,373 +1665,355 @@
       <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E2" s="2">
         <v>106</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="N8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="N3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="N4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="N5" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="N6" s="2" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="N7" s="2" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R7" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="N8" s="2" t="s">
+      <c r="O11" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="N9" s="2" t="s">
+      <c r="O12" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="N10" s="2" t="s">
+      <c r="O13" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="N11" s="2" t="s">
+      <c r="O14" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="R11" s="2" t="s">
+      <c r="N15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="N12" s="2" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="K16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="N13" s="2" t="s">
+    <row r="17" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="N14" s="2" t="s">
+    <row r="18" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="N15" s="2" t="s">
+    <row r="19" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R15" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="N16" s="2" t="s">
+      <c r="O19" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="14:18" x14ac:dyDescent="0.15">
-      <c r="N17" s="2" t="s">
+    </row>
+    <row r="21" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="14:18" x14ac:dyDescent="0.15">
-      <c r="N18" s="2" t="s">
+    </row>
+    <row r="22" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="14:18" x14ac:dyDescent="0.15">
-      <c r="N19" s="2" t="s">
+    </row>
+    <row r="23" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="14:18" x14ac:dyDescent="0.15">
-      <c r="N20" s="2" t="s">
+    </row>
+    <row r="24" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="L24" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="14:18" x14ac:dyDescent="0.15">
-      <c r="N21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O21" s="2" t="s">
+    <row r="26" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="K26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="14:18" x14ac:dyDescent="0.15">
-      <c r="N22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="14:18" x14ac:dyDescent="0.15">
-      <c r="N23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="14:18" x14ac:dyDescent="0.15">
-      <c r="N24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="14:18" x14ac:dyDescent="0.15">
-      <c r="N25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="14:18" x14ac:dyDescent="0.15">
-      <c r="N26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2037,4 +2021,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/layout初始数据.xlsx
+++ b/layout初始数据.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="218">
   <si>
     <t>DOC_ID</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>102</t>
+  </si>
+  <si>
+    <t>102</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -521,6 +524,9 @@
   </si>
   <si>
     <t>103</t>
+  </si>
+  <si>
+    <t>103</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -556,6 +562,9 @@
   </si>
   <si>
     <t>105</t>
+  </si>
+  <si>
+    <t>105</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -572,6 +581,9 @@
   </si>
   <si>
     <t>106</t>
+  </si>
+  <si>
+    <t>106</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -584,6 +596,9 @@
   </si>
   <si>
     <t>107</t>
+  </si>
+  <si>
+    <t>107</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -623,6 +638,9 @@
   </si>
   <si>
     <t>110</t>
+  </si>
+  <si>
+    <t>110</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -678,6 +696,129 @@
   </si>
   <si>
     <t>TEMPLATE_END</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>LcComponentTemplateValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0109</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>DOC_PLACEHOLDER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>label=""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>label=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>:prop=""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@click=""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>:model=""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;el-form id= style= &gt;&lt;el-row&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/el-row&gt;&lt;/el-form&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;el-col :span= &gt;&lt;el-form-item label= id= style= &gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/el-form-item&gt;&lt;/el-col&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;el-input v-model= id= style= &gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/el-input&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/el-button&gt;</t>
+  </si>
+  <si>
+    <t>&lt;el-button&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1166,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1197,153 +1338,153 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>119</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="J4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1419,80 +1560,80 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +1647,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1569,40 +1710,40 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1613,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O2:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1677,6 +1818,9 @@
       <c r="N1" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1721,6 +1865,9 @@
       <c r="N2" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="K3" s="2" t="s">
@@ -1729,11 +1876,8 @@
       <c r="L3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -1743,11 +1887,8 @@
       <c r="L4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="O4" s="2" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -1757,11 +1898,8 @@
       <c r="L5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="O5" s="2" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -1771,11 +1909,8 @@
       <c r="L6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="O6" s="2" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -1785,12 +1920,6 @@
       <c r="L7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="K8" s="2" t="s">
@@ -1799,12 +1928,6 @@
       <c r="L8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="K9" s="2" t="s">
@@ -1813,12 +1936,6 @@
       <c r="L9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="K10" s="2" t="s">
@@ -1827,12 +1944,6 @@
       <c r="L10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="K11" s="2" t="s">
@@ -1841,12 +1952,6 @@
       <c r="L11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="K12" s="2" t="s">
@@ -1855,12 +1960,6 @@
       <c r="L12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="K13" s="2" t="s">
@@ -1869,12 +1968,6 @@
       <c r="L13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="K14" s="2" t="s">
@@ -1883,12 +1976,6 @@
       <c r="L14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="K15" s="2" t="s">
@@ -1897,12 +1984,6 @@
       <c r="L15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="K16" s="2" t="s">
@@ -1911,12 +1992,6 @@
       <c r="L16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="17" spans="11:15" x14ac:dyDescent="0.15">
       <c r="K17" s="2" t="s">
@@ -1925,12 +2000,6 @@
       <c r="L17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="18" spans="11:15" x14ac:dyDescent="0.15">
       <c r="K18" s="2" t="s">
@@ -1939,12 +2008,6 @@
       <c r="L18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="19" spans="11:15" x14ac:dyDescent="0.15">
       <c r="K19" s="2" t="s">
@@ -1953,12 +2016,6 @@
       <c r="L19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="20" spans="11:15" x14ac:dyDescent="0.15">
       <c r="K20" s="2" t="s">
@@ -1991,6 +2048,12 @@
       <c r="L23" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="N23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="24" spans="11:15" x14ac:dyDescent="0.15">
       <c r="K24" s="2" t="s">
@@ -1999,6 +2062,12 @@
       <c r="L24" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="N24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="25" spans="11:15" x14ac:dyDescent="0.15">
       <c r="K25" s="2" t="s">
@@ -2007,6 +2076,12 @@
       <c r="L25" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="N25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="26" spans="11:15" x14ac:dyDescent="0.15">
       <c r="K26" s="2" t="s">
@@ -2014,6 +2089,116 @@
       </c>
       <c r="L26" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="N27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="N28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="N29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="N30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="N31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="11:15" x14ac:dyDescent="0.15">
+      <c r="N32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="14:15" x14ac:dyDescent="0.15">
+      <c r="N39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2025,60 +2210,584 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" t="s">
-        <v>172</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M1" t="s">
-        <v>173</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/layout初始数据.xlsx
+++ b/layout初始数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="219">
   <si>
     <t>DOC_ID</t>
   </si>
@@ -490,335 +490,340 @@
     <t>FUNCTION_LIST</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>LContainer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout-form</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>LcText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nd.attributes.code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item-nd.attributes.code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nd.attributes.name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item-nd.attributes.name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item-nd.attributes.ndCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nd.attributes.ndCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LcButton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout-save</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>layoutSave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>CREATOR</t>
+  </si>
+  <si>
+    <t>MODIFIER</t>
+  </si>
+  <si>
+    <t>TEMPLATE_START</t>
+  </si>
+  <si>
+    <t>TEMPLATE_BODY</t>
+  </si>
+  <si>
+    <t>TEMPLATE_END</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>LcComponentTemplateValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0109</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>DOC_PLACEHOLDER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>label=""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>label=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>:prop=""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@click=""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>:model=""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;el-form id= style= &gt;&lt;el-row&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/el-row&gt;&lt;/el-form&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;el-col :span= &gt;&lt;el-form-item label= id= style= &gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/el-form-item&gt;&lt;/el-col&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;el-input v-model= id= style= &gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/el-input&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/el-button&gt;</t>
+  </si>
+  <si>
+    <t>&lt;el-button&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
     <t>INIT_FUNCTION_LIST</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>102</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>LContainer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0104</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>layout-form</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>104</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>LcText</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nd.attributes.code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>item-nd.attributes.code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>105</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nd.attributes.name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>item-nd.attributes.name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>107</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>item-nd.attributes.ndCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定元素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>108</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>105</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nd.attributes.ndCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>109</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LcButton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0104</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>layout-save</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>layoutSave</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VERSION</t>
-  </si>
-  <si>
-    <t>CREATOR</t>
-  </si>
-  <si>
-    <t>MODIFIER</t>
-  </si>
-  <si>
-    <t>TEMPLATE_START</t>
-  </si>
-  <si>
-    <t>TEMPLATE_BODY</t>
-  </si>
-  <si>
-    <t>TEMPLATE_END</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>LcComponentTemplateValue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0109</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>107</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>DOC_PLACEHOLDER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>label=""</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>label=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>:prop=""</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>@click=""</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>:model=""</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;el-form id= style= &gt;&lt;el-row&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/el-row&gt;&lt;/el-form&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;el-col :span= &gt;&lt;el-form-item label= id= style= &gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/el-form-item&gt;&lt;/el-col&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;el-input v-model= id= style= &gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/el-input&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/el-button&gt;</t>
-  </si>
-  <si>
-    <t>&lt;el-button&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1166,7 +1171,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1225,7 +1230,7 @@
         <v>126</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -1338,153 +1343,153 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>119</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="Q5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="M6" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1495,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1517,7 +1522,7 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>107</v>
       </c>
@@ -1557,83 +1562,95 @@
       <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N1" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>162</v>
+        <v>218</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1647,7 +1664,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1710,40 +1727,40 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1836,7 @@
         <v>29</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
@@ -1866,7 +1883,7 @@
         <v>61</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -1877,7 +1894,7 @@
         <v>54</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -1888,7 +1905,7 @@
         <v>55</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -1899,7 +1916,7 @@
         <v>56</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -1910,7 +1927,7 @@
         <v>34</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -2212,8 +2229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2251,28 +2268,28 @@
         <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>113</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>115</v>
@@ -2280,39 +2297,39 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>63</v>
@@ -2320,19 +2337,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>64</v>
@@ -2340,19 +2357,19 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>65</v>
@@ -2360,71 +2377,71 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>68</v>
@@ -2432,19 +2449,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>69</v>
@@ -2452,74 +2469,74 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>72</v>
@@ -2527,19 +2544,19 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>73</v>
@@ -2547,19 +2564,19 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>74</v>
@@ -2567,19 +2584,19 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>75</v>
@@ -2587,19 +2604,19 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>76</v>
@@ -2607,19 +2624,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>77</v>
@@ -2627,19 +2644,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>78</v>
@@ -2647,19 +2664,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>79</v>
@@ -2667,19 +2684,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>80</v>
@@ -2687,19 +2704,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>81</v>
@@ -2707,19 +2724,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>82</v>
@@ -2727,19 +2744,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>83</v>
@@ -2747,19 +2764,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>84</v>
@@ -2767,19 +2784,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>85</v>

--- a/layout初始数据.xlsx
+++ b/layout初始数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="219">
   <si>
     <t>DOC_ID</t>
   </si>
@@ -550,14 +550,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nd.attributes.code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>item-nd.attributes.code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>105</t>
   </si>
   <si>
@@ -584,14 +576,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nd.attributes.name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>item-nd.attributes.name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>107</t>
   </si>
   <si>
@@ -599,10 +583,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>item-nd.attributes.ndCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>绑定元素</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -619,10 +599,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nd.attributes.ndCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>109</t>
   </si>
   <si>
@@ -811,18 +787,43 @@
     <t>&lt;/el-button&gt;</t>
   </si>
   <si>
-    <t>&lt;el-button&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
     <t>INIT_FUNCTION_LIST</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nd.fvs.code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nd.fvs.name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nd.fvs.ndCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item-nd.fvs.name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item-nd.fvs.code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item-nd.fvs.ndCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item-layout-save</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;el-button&gt;label</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1171,7 +1172,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1230,7 +1231,7 @@
         <v>126</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -1264,7 +1265,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1384,7 +1385,7 @@
         <v>128</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>133</v>
@@ -1401,7 +1402,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>129</v>
@@ -1416,24 +1417,24 @@
         <v>128</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>137</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>129</v>
@@ -1448,24 +1449,24 @@
         <v>128</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>137</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>129</v>
@@ -1480,21 +1481,22 @@
         <v>128</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>137</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1502,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1583,21 +1585,21 @@
         <v>136</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>133</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>141</v>
@@ -1609,24 +1611,24 @@
         <v>131</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>133</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>141</v>
@@ -1638,19 +1640,19 @@
         <v>131</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>133</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1664,7 +1666,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1727,40 +1729,40 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1773,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O2:O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1836,7 +1838,7 @@
         <v>29</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
@@ -1883,7 +1885,7 @@
         <v>61</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -1894,7 +1896,7 @@
         <v>54</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -1905,7 +1907,7 @@
         <v>55</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -1916,7 +1918,7 @@
         <v>56</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -1927,7 +1929,7 @@
         <v>34</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -2230,7 +2232,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2268,28 +2270,28 @@
         <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>113</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>115</v>
@@ -2297,22 +2299,22 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -2320,16 +2322,16 @@
         <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>63</v>
@@ -2340,16 +2342,16 @@
         <v>135</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>64</v>
@@ -2360,16 +2362,16 @@
         <v>129</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>65</v>
@@ -2377,71 +2379,71 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>68</v>
@@ -2452,16 +2454,16 @@
         <v>141</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>69</v>
@@ -2469,74 +2471,71 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>72</v>
@@ -2544,19 +2543,19 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>73</v>
@@ -2564,19 +2563,19 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>74</v>
@@ -2584,19 +2583,19 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>75</v>
@@ -2604,19 +2603,19 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>76</v>
@@ -2624,19 +2623,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>77</v>
@@ -2644,19 +2643,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>78</v>
@@ -2664,19 +2663,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>79</v>
@@ -2684,19 +2683,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>80</v>
@@ -2704,19 +2703,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>81</v>
@@ -2724,19 +2723,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>82</v>
@@ -2744,19 +2743,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>83</v>
@@ -2764,19 +2763,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>84</v>
@@ -2784,19 +2783,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>85</v>

--- a/layout初始数据.xlsx
+++ b/layout初始数据.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="167">
   <si>
     <t>DOC_ID</t>
   </si>
@@ -224,18 +224,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>103</t>
   </si>
   <si>
     <t>103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -988,10 +980,10 @@
         <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>50</v>
@@ -1006,13 +998,13 @@
         <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>41</v>
@@ -1038,16 +1030,16 @@
         <v>45</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1060,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1158,12 +1150,12 @@
         <v>60</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>56</v>
@@ -1178,24 +1170,24 @@
         <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>56</v>
@@ -1210,24 +1202,24 @@
         <v>55</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>56</v>
@@ -1242,24 +1234,24 @@
         <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>56</v>
@@ -1274,16 +1266,16 @@
         <v>55</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1363,89 +1355,89 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1522,40 +1514,40 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1606,13 +1598,13 @@
         <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -1621,16 +1613,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>41</v>
@@ -1638,40 +1630,40 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -1679,75 +1671,75 @@
         <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -1755,341 +1747,341 @@
         <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="G6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="G10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2103,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2142,28 +2134,28 @@
         <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>41</v>
@@ -2171,31 +2163,31 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -2203,57 +2195,57 @@
         <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -2261,632 +2253,632 @@
         <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
